--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:05:48+00:00</t>
+    <t>2025-10-27T10:36:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-circumstance-codes-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-circumstance-codes-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:51:09+00:00</t>
+    <t>2025-11-06T10:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/stroke-circumstance-codes-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/stroke-circumstance-codes-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:43:22+00:00</t>
+    <t>2025-11-18T10:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-circumstance-codes-vs.xlsx
+++ b/ValueSet-stroke-circumstance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
